--- a/data/trans_camb/P6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,59</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>6,86</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 8,2</t>
+          <t>-6,65; 3,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 16,01</t>
+          <t>-2,3; 12,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 13,54</t>
+          <t>-2,63; 12,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 12,53</t>
+          <t>-5,55; 8,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 25,87</t>
+          <t>-2,11; 13,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 24,5</t>
+          <t>1,41; 17,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 7,61</t>
+          <t>-4,83; 4,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 18,26</t>
+          <t>-0,06; 10,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 16,08</t>
+          <t>2,0; 12,62</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>-25,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>108,26%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>142,49%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>132,78%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>130,84%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>113,2%</t>
+          <t>81,77%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,75; 196,61</t>
+          <t>-76,39; 93,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 344,48</t>
+          <t>-31,32; 268,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 306,26</t>
+          <t>-37,7; 291,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 161,0</t>
+          <t>-45,21; 112,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,82; 337,11</t>
+          <t>-16,91; 196,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,48; 317,1</t>
+          <t>9,0; 232,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 116,8</t>
+          <t>-46,13; 73,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,19; 278,29</t>
+          <t>-4,68; 146,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,63; 245,84</t>
+          <t>18,17; 193,54</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>5,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 16,8</t>
+          <t>-2,54; 12,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 19,24</t>
+          <t>-3,46; 9,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 17,17</t>
+          <t>-1,11; 12,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 11,91</t>
+          <t>-1,83; 8,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 16,48</t>
+          <t>-2,51; 7,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 16,85</t>
+          <t>1,8; 12,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,28</t>
+          <t>-0,96; 9,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 15,37</t>
+          <t>-1,39; 6,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 14,92</t>
+          <t>1,85; 10,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>110,92%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>102,97%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>47,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>145,93%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>165,67%</t>
+          <t>111,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>125,15%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>126,54%</t>
+          <t>77,54%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 292,09</t>
+          <t>-26,07; 204,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 297,22</t>
+          <t>-31,59; 141,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 265,79</t>
+          <t>-12,36; 202,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 287,54</t>
+          <t>-26,73; 250,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,44; 397,24</t>
+          <t>-32,3; 198,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,22; 460,21</t>
+          <t>16,66; 319,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 196,99</t>
+          <t>-11,18; 162,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,66; 254,09</t>
+          <t>-15,24; 123,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,89; 246,26</t>
+          <t>14,87; 177,36</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 20,73</t>
+          <t>-2,54; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 13,78</t>
+          <t>-0,81; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,48</t>
+          <t>-1,08; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,02</t>
+          <t>-3,87; 3,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 4,86</t>
+          <t>-5,09; 1,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,86</t>
+          <t>-2,92; 3,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 11,21</t>
+          <t>-1,87; 3,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,4</t>
+          <t>-2,1; 2,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,71</t>
+          <t>-0,87; 4,11</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>156,09%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>201,51%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>129,38%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>-32,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69,17%</t>
+          <t>29,09%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 843,26</t>
+          <t>-45,42; 197,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,41; 615,67</t>
+          <t>-22,77; 283,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 471,16</t>
+          <t>-23,28; 277,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 120,79</t>
+          <t>-52,46; 97,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 117,92</t>
+          <t>-66,07; 30,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 145,83</t>
+          <t>-41,61; 98,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 269,95</t>
+          <t>-31,45; 85,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,21; 214,79</t>
+          <t>-34,5; 73,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 175,36</t>
+          <t>-16,41; 107,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-0,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,99</t>
+          <t>-3,26; 4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 7,93</t>
+          <t>-3,12; 3,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,31</t>
+          <t>-3,0; 4,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,85</t>
+          <t>-6,76; 3,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,45</t>
+          <t>-7,54; 1,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 4,59</t>
+          <t>-6,87; 2,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,95</t>
+          <t>-4,3; 2,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 5,63</t>
+          <t>-4,78; 1,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,26</t>
+          <t>-4,27; 1,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>-15,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>-25,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-22,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>-10,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>-10,65%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 152,75</t>
+          <t>-47,3; 119,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 197,0</t>
+          <t>-44,31; 104,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 197,82</t>
+          <t>-43,78; 111,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 58,25</t>
+          <t>-45,02; 29,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 68,18</t>
+          <t>-51,85; 12,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 46,07</t>
+          <t>-47,1; 24,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 50,67</t>
+          <t>-38,77; 27,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 71,26</t>
+          <t>-42,3; 17,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 51,87</t>
+          <t>-39,52; 24,0</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 10,19</t>
+          <t>-5,26; 5,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,1</t>
+          <t>-7,92; 0,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 4,41</t>
+          <t>-6,62; 2,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 8,52</t>
+          <t>-5,22; 5,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 15,83</t>
+          <t>-5,62; 5,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 11,5</t>
+          <t>-3,81; 7,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,5</t>
+          <t>-3,58; 3,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,9</t>
+          <t>-5,42; 1,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 6,24</t>
+          <t>-3,65; 3,63</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,08%</t>
+          <t>-39,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-26,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>-2,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>70,79%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>-18,25%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>0,55%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 155,19</t>
+          <t>-48,12; 87,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 79,24</t>
+          <t>-68,21; 13,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,43; 72,89</t>
+          <t>-58,67; 36,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 103,0</t>
+          <t>-42,62; 75,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,85; 206,58</t>
+          <t>-43,51; 72,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 148,62</t>
+          <t>-29,3; 103,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 94,4</t>
+          <t>-31,84; 48,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 99,16</t>
+          <t>-46,69; 22,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 78,84</t>
+          <t>-32,03; 48,57</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 6,49</t>
+          <t>-5,73; 3,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 4,57</t>
+          <t>-7,29; 1,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 3,23</t>
+          <t>-6,12; 2,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,99</t>
+          <t>-3,92; 4,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,41</t>
+          <t>-4,02; 3,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 8,8</t>
+          <t>-2,8; 5,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,23</t>
+          <t>-2,96; 2,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 5,33</t>
+          <t>-3,93; 1,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 4,93</t>
+          <t>-2,57; 3,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>-16,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>-44,2%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>-26,27%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>68,78%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>-6,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-67,41; 206,66</t>
+          <t>-71,13; 128,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,83; 165,28</t>
+          <t>-86,28; 52,32</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-73,8; 120,15</t>
+          <t>-76,72; 115,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,62; 212,03</t>
+          <t>-59,41; 138,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 236,59</t>
+          <t>-60,02; 110,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 264,34</t>
+          <t>-41,98; 156,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 143,59</t>
+          <t>-47,85; 76,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 134,13</t>
+          <t>-58,15; 36,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 134,67</t>
+          <t>-37,92; 82,74</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,59</t>
+          <t>-1,37; 3,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,58</t>
+          <t>-1,07; 2,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,0</t>
+          <t>-0,37; 3,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,58</t>
+          <t>-1,91; 2,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,08</t>
+          <t>-1,9; 1,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,73</t>
+          <t>0,34; 4,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,62</t>
+          <t>-1,05; 1,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,99</t>
+          <t>-0,84; 1,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,06</t>
+          <t>0,6; 3,51</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>64,72%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>28,46%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>9,29; 115,29</t>
+          <t>-18,46; 55,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>30,03; 135,69</t>
+          <t>-14,78; 51,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,28; 106,58</t>
+          <t>-4,77; 68,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 60,57</t>
+          <t>-21,15; 32,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>30,94; 112,4</t>
+          <t>-21,52; 25,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>30,25; 103,11</t>
+          <t>3,1; 66,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,02; 68,62</t>
+          <t>-12,96; 29,42</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>41,38; 104,76</t>
+          <t>-10,64; 29,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>31,91; 89,26</t>
+          <t>7,52; 52,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
